--- a/test_files/commit_test/commit_test1.xlsx
+++ b/test_files/commit_test/commit_test1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Name</t>
   </si>
@@ -372,12 +372,13 @@
   <dimension ref="A1:CJ6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BN1" workbookViewId="0">
-      <selection activeCell="BN3" sqref="BN3"/>
+      <selection activeCell="BN2" sqref="BN2:BO3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="66" max="66" width="30.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:88">
@@ -397,6 +398,17 @@
       </c>
       <c r="BN2" t="s">
         <v>6</v>
+      </c>
+      <c r="BO2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:88">
+      <c r="BN3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BO3">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:88">

--- a/test_files/commit_test/commit_test1.xlsx
+++ b/test_files/commit_test/commit_test1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>Name</t>
   </si>
@@ -372,7 +372,7 @@
   <dimension ref="A1:CJ6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BN1" workbookViewId="0">
-      <selection activeCell="BN2" sqref="BN2:BO3"/>
+      <selection activeCell="BN4" sqref="BN4:BO5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -408,6 +408,22 @@
         <v>6</v>
       </c>
       <c r="BO3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:88">
+      <c r="BN4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BO4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:88">
+      <c r="BN5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BO5">
         <v>2</v>
       </c>
     </row>

--- a/test_files/commit_test/commit_test1.xlsx
+++ b/test_files/commit_test/commit_test1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>commit 15012026</t>
+  </si>
+  <si>
+    <t>Now I am working on commit 6</t>
+  </si>
+  <si>
+    <t>commit 15012025</t>
   </si>
 </sst>
 </file>
@@ -372,7 +378,7 @@
   <dimension ref="A1:CJ6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BN1" workbookViewId="0">
-      <selection activeCell="BN4" sqref="BN4:BO5"/>
+      <selection activeCell="BO12" sqref="BO12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -413,7 +419,7 @@
     </row>
     <row r="4" spans="1:88">
       <c r="BN4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BO4">
         <v>1</v>
@@ -423,11 +429,11 @@
       <c r="BN5" t="s">
         <v>6</v>
       </c>
-      <c r="BO5">
-        <v>2</v>
-      </c>
     </row>
     <row r="6" spans="1:88">
+      <c r="BN6" t="s">
+        <v>7</v>
+      </c>
       <c r="CJ6" t="s">
         <v>5</v>
       </c>

--- a/test_files/commit_test/commit_test1.xlsx
+++ b/test_files/commit_test/commit_test1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>commit 15012025</t>
+  </si>
+  <si>
+    <t>Now I am working on commit 7</t>
   </si>
 </sst>
 </file>
@@ -375,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CJ6"/>
+  <dimension ref="A1:CJ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BN1" workbookViewId="0">
-      <selection activeCell="BO12" sqref="BO12"/>
+    <sheetView tabSelected="1" topLeftCell="BM1" workbookViewId="0">
+      <selection activeCell="BN8" sqref="BN8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -436,6 +439,11 @@
       </c>
       <c r="CJ6" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:88">
+      <c r="BN7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
